--- a/Assets/fake_person_generator.xlsx
+++ b/Assets/fake_person_generator.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <x:si>
     <x:t>Fullname</x:t>
   </x:si>
@@ -34,109 +34,112 @@
     <x:t>Zip</x:t>
   </x:si>
   <x:si>
-    <x:t>Ginger R Kershaw</x:t>
+    <x:t>Clayton K Terrazas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/28/1962</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Portland</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maine(ME)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lavina D Marion</x:t>
   </x:si>
   <x:si>
     <x:t>female</x:t>
   </x:si>
   <x:si>
-    <x:t>4/2/1977</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Augusta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Georgia(GA)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30906</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michael J Allison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9/23/1975</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mauston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wisconsin(WI)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53948</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Julia J McCurry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1/8/1989</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roswell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jimmy B Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4/1/1991</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roanoke</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Virginia(VA)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Denise B Cameron</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4/20/1995</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Atlanta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Laura D Sawyer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7/15/1981</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stamford</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Connecticut(CT)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norma S Parrott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10/29/1993</x:t>
-  </x:si>
-  <x:si>
-    <x:t>San Antonio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Texas(TX)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78258</x:t>
+    <x:t>9/18/1963</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Las Vegas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nevada(NV)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Louis W Walker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/22/1973</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arlington Heights</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Illinois(IL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raymond N Croy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/28/1988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bohemia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New York(NY)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Derrick H Canipe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/25/1989</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wayne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Jersey(NJ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Don S Romero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/30/1983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mansfield</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ohio(OH)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mario L Anderson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/8/1973</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Poughkeepsie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12601</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -558,7 +561,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>19</x:v>
@@ -567,90 +570,90 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
